--- a/src/test/resources/unittesting/artifact/script/unitTest_execution_summary.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_execution_summary.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="7815" windowWidth="20490"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Compare" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Compare" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -23,7 +23,7 @@
     <definedName name="excel">'#system'!$J$2:$J$18</definedName>
     <definedName name="external">'#system'!$K$2:$K$7</definedName>
     <definedName name="image">'#system'!$L$2:$L$8</definedName>
-    <definedName name="io">'#system'!$M$2:$M$32</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
     <definedName name="jms">'#system'!$O$2:$O$4</definedName>
     <definedName name="json">'#system'!$P$2:$P$19</definedName>
     <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
@@ -44,7 +44,7 @@
     <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
-    <definedName name="web">'#system'!$AE$2:$AE$159</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
     <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
     <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
     <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="757">
   <si>
     <t>target</t>
   </si>
@@ -2343,6 +2343,12 @@
     }
 }</t>
   </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
 </sst>
 </file>
 
@@ -2350,11 +2356,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2565,8 +2571,115 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2771,6 +2884,142 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2910,338 +3159,389 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="9" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="10" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="11" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="0" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="17" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="26" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="20" fontId="28" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="20" fontId="27" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="8" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="27" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="56">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="7">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="7">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="7">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="7"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="8"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="9"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="10"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="11"/>
+    <cellStyle builtinId="10" name="Note" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3275,7 +3575,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="00F8F7F9"/>
@@ -3297,10 +3597,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3464,21 +3764,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3495,7 +3795,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3548,20 +3848,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AL159"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3677,7 +3977,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3793,7 +4093,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3828,7 +4128,7 @@
         <v>84</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>755</v>
       </c>
       <c r="N3" t="s">
         <v>86</v>
@@ -3903,7 +4203,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3935,7 +4235,7 @@
         <v>117</v>
       </c>
       <c r="M4" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="N4" t="s">
         <v>119</v>
@@ -4010,7 +4310,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4042,7 +4342,7 @@
         <v>151</v>
       </c>
       <c r="M5" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="N5" t="s">
         <v>153</v>
@@ -4105,7 +4405,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4137,7 +4437,7 @@
         <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
       <c r="N6" t="s">
         <v>182</v>
@@ -4194,7 +4494,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4220,7 +4520,7 @@
         <v>205</v>
       </c>
       <c r="M7" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="N7" t="s">
         <v>207</v>
@@ -4274,7 +4574,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4294,7 +4594,7 @@
         <v>227</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>206</v>
       </c>
       <c r="N8" t="s">
         <v>228</v>
@@ -4348,7 +4648,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4365,7 +4665,7 @@
         <v>248</v>
       </c>
       <c r="M9" t="s">
-        <v>249</v>
+        <v>44</v>
       </c>
       <c r="N9" t="s">
         <v>250</v>
@@ -4413,7 +4713,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4427,7 +4727,7 @@
         <v>266</v>
       </c>
       <c r="M10" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="N10" t="s">
         <v>268</v>
@@ -4466,7 +4766,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4480,7 +4780,7 @@
         <v>282</v>
       </c>
       <c r="M11" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="N11" t="s">
         <v>284</v>
@@ -4513,7 +4813,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4527,7 +4827,7 @@
         <v>296</v>
       </c>
       <c r="M12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="N12" t="s">
         <v>298</v>
@@ -4560,7 +4860,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4574,7 +4874,7 @@
         <v>310</v>
       </c>
       <c r="M13" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="N13" t="s">
         <v>312</v>
@@ -4607,7 +4907,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4621,7 +4921,7 @@
         <v>323</v>
       </c>
       <c r="M14" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="N14" t="s">
         <v>325</v>
@@ -4651,7 +4951,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4665,7 +4965,7 @@
         <v>336</v>
       </c>
       <c r="M15" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="N15" t="s">
         <v>338</v>
@@ -4695,7 +4995,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4709,7 +5009,7 @@
         <v>348</v>
       </c>
       <c r="M16" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="N16" t="s">
         <v>350</v>
@@ -4739,7 +5039,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4753,7 +5053,7 @@
         <v>360</v>
       </c>
       <c r="M17" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="P17" t="s">
         <v>362</v>
@@ -4777,7 +5077,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4791,7 +5091,7 @@
         <v>371</v>
       </c>
       <c r="M18" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="P18" t="s">
         <v>373</v>
@@ -4815,7 +5115,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -4826,7 +5126,7 @@
         <v>380</v>
       </c>
       <c r="M19" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="P19" t="s">
         <v>382</v>
@@ -4850,7 +5150,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -4861,7 +5161,7 @@
         <v>390</v>
       </c>
       <c r="M20" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="T20" t="s">
         <v>392</v>
@@ -4882,7 +5182,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -4893,7 +5193,7 @@
         <v>398</v>
       </c>
       <c r="M21" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="T21" t="s">
         <v>400</v>
@@ -4911,7 +5211,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -4922,7 +5222,7 @@
         <v>406</v>
       </c>
       <c r="M22" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="T22" t="s">
         <v>408</v>
@@ -4937,7 +5237,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -4948,7 +5248,7 @@
         <v>413</v>
       </c>
       <c r="M23" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="T23" t="s">
         <v>415</v>
@@ -4963,7 +5263,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4974,7 +5274,7 @@
         <v>420</v>
       </c>
       <c r="M24" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="T24" t="s">
         <v>422</v>
@@ -4989,7 +5289,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5000,7 +5300,7 @@
         <v>427</v>
       </c>
       <c r="M25" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="T25" t="s">
         <v>429</v>
@@ -5015,7 +5315,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5026,7 +5326,7 @@
         <v>434</v>
       </c>
       <c r="M26" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="T26" t="s">
         <v>436</v>
@@ -5041,7 +5341,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5052,7 +5352,7 @@
         <v>441</v>
       </c>
       <c r="M27" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="T27" t="s">
         <v>443</v>
@@ -5067,7 +5367,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5078,7 +5378,7 @@
         <v>448</v>
       </c>
       <c r="M28" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="T28" t="s">
         <v>450</v>
@@ -5090,7 +5390,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5101,7 +5401,7 @@
         <v>454</v>
       </c>
       <c r="M29" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="T29" t="s">
         <v>456</v>
@@ -5113,7 +5413,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5124,7 +5424,7 @@
         <v>460</v>
       </c>
       <c r="M30" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="T30" t="s">
         <v>462</v>
@@ -5136,7 +5436,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5147,7 +5447,7 @@
         <v>466</v>
       </c>
       <c r="M31" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="T31" t="s">
         <v>468</v>
@@ -5159,7 +5459,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="32" spans="1:31">
+    <row r="32">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5170,7 +5470,7 @@
         <v>472</v>
       </c>
       <c r="M32" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="T32" t="s">
         <v>474</v>
@@ -5182,7 +5482,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="33" spans="1:31">
+    <row r="33">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5192,6 +5492,9 @@
       <c r="I33" t="s">
         <v>207</v>
       </c>
+      <c r="M33" t="s">
+        <v>473</v>
+      </c>
       <c r="T33" t="s">
         <v>478</v>
       </c>
@@ -5202,7 +5505,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="34" spans="1:31">
+    <row r="34">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5222,7 +5525,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="35" spans="1:31">
+    <row r="35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5242,7 +5545,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="36" spans="1:31">
+    <row r="36">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5262,7 +5565,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="37" spans="1:31">
+    <row r="37">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5282,7 +5585,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="1:31">
+    <row r="38">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5302,7 +5605,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="39" spans="6:31">
+    <row r="39">
       <c r="F39" t="s">
         <v>506</v>
       </c>
@@ -5319,7 +5622,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="40" spans="6:31">
+    <row r="40">
       <c r="F40" t="s">
         <v>511</v>
       </c>
@@ -5336,7 +5639,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="41" spans="6:31">
+    <row r="41">
       <c r="F41" t="s">
         <v>516</v>
       </c>
@@ -5353,7 +5656,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="42" spans="6:31">
+    <row r="42">
       <c r="F42" t="s">
         <v>521</v>
       </c>
@@ -5370,7 +5673,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="43" spans="6:31">
+    <row r="43">
       <c r="F43" t="s">
         <v>526</v>
       </c>
@@ -5387,7 +5690,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="6:31">
+    <row r="44">
       <c r="F44" t="s">
         <v>531</v>
       </c>
@@ -5404,7 +5707,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="45" spans="6:31">
+    <row r="45">
       <c r="F45" t="s">
         <v>536</v>
       </c>
@@ -5418,7 +5721,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="46" spans="6:31">
+    <row r="46">
       <c r="F46" t="s">
         <v>540</v>
       </c>
@@ -5432,7 +5735,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="47" spans="6:31">
+    <row r="47">
       <c r="F47" t="s">
         <v>544</v>
       </c>
@@ -5446,7 +5749,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="48" spans="9:31">
+    <row r="48">
       <c r="I48" t="s">
         <v>548</v>
       </c>
@@ -5457,7 +5760,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="49" spans="9:31">
+    <row r="49">
       <c r="I49" t="s">
         <v>551</v>
       </c>
@@ -5468,7 +5771,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="50" spans="9:31">
+    <row r="50">
       <c r="I50" t="s">
         <v>554</v>
       </c>
@@ -5479,7 +5782,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="51" spans="9:31">
+    <row r="51">
       <c r="I51" t="s">
         <v>557</v>
       </c>
@@ -5490,7 +5793,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="52" spans="9:31">
+    <row r="52">
       <c r="I52" t="s">
         <v>560</v>
       </c>
@@ -5498,7 +5801,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="53" spans="9:31">
+    <row r="53">
       <c r="I53" t="s">
         <v>562</v>
       </c>
@@ -5506,7 +5809,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="54" spans="9:31">
+    <row r="54">
       <c r="I54" t="s">
         <v>564</v>
       </c>
@@ -5514,7 +5817,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="55" spans="9:31">
+    <row r="55">
       <c r="I55" t="s">
         <v>566</v>
       </c>
@@ -5522,7 +5825,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" spans="9:31">
+    <row r="56">
       <c r="I56" t="s">
         <v>568</v>
       </c>
@@ -5530,7 +5833,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="57" spans="9:31">
+    <row r="57">
       <c r="I57" t="s">
         <v>570</v>
       </c>
@@ -5538,7 +5841,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="58" spans="9:31">
+    <row r="58">
       <c r="I58" t="s">
         <v>572</v>
       </c>
@@ -5546,7 +5849,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="59" spans="9:31">
+    <row r="59">
       <c r="I59" t="s">
         <v>573</v>
       </c>
@@ -5554,7 +5857,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="60" spans="9:31">
+    <row r="60">
       <c r="I60" t="s">
         <v>575</v>
       </c>
@@ -5562,7 +5865,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="61" spans="9:31">
+    <row r="61">
       <c r="I61" t="s">
         <v>577</v>
       </c>
@@ -5570,7 +5873,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="62" spans="9:31">
+    <row r="62">
       <c r="I62" t="s">
         <v>579</v>
       </c>
@@ -5578,7 +5881,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="63" spans="9:31">
+    <row r="63">
       <c r="I63" t="s">
         <v>581</v>
       </c>
@@ -5586,7 +5889,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="64" spans="9:31">
+    <row r="64">
       <c r="I64" t="s">
         <v>583</v>
       </c>
@@ -5594,7 +5897,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="65" spans="9:31">
+    <row r="65">
       <c r="I65" t="s">
         <v>585</v>
       </c>
@@ -5602,7 +5905,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="66" spans="9:31">
+    <row r="66">
       <c r="I66" t="s">
         <v>587</v>
       </c>
@@ -5610,7 +5913,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="67" spans="9:31">
+    <row r="67">
       <c r="I67" t="s">
         <v>589</v>
       </c>
@@ -5618,7 +5921,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="68" spans="9:31">
+    <row r="68">
       <c r="I68" t="s">
         <v>591</v>
       </c>
@@ -5626,7 +5929,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="69" spans="9:31">
+    <row r="69">
       <c r="I69" t="s">
         <v>593</v>
       </c>
@@ -5634,7 +5937,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="70" spans="9:31">
+    <row r="70">
       <c r="I70" t="s">
         <v>595</v>
       </c>
@@ -5642,7 +5945,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="71" spans="9:31">
+    <row r="71">
       <c r="I71" t="s">
         <v>597</v>
       </c>
@@ -5650,7 +5953,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="72" spans="9:31">
+    <row r="72">
       <c r="I72" t="s">
         <v>599</v>
       </c>
@@ -5658,7 +5961,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="73" spans="9:31">
+    <row r="73">
       <c r="I73" t="s">
         <v>601</v>
       </c>
@@ -5666,7 +5969,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="74" spans="9:31">
+    <row r="74">
       <c r="I74" t="s">
         <v>603</v>
       </c>
@@ -5674,7 +5977,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="75" spans="9:31">
+    <row r="75">
       <c r="I75" t="s">
         <v>605</v>
       </c>
@@ -5682,7 +5985,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="76" spans="9:31">
+    <row r="76">
       <c r="I76" t="s">
         <v>607</v>
       </c>
@@ -5690,7 +5993,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="77" spans="9:31">
+    <row r="77">
       <c r="I77" t="s">
         <v>609</v>
       </c>
@@ -5698,7 +6001,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="78" spans="9:31">
+    <row r="78">
       <c r="I78" t="s">
         <v>611</v>
       </c>
@@ -5706,7 +6009,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="79" spans="9:31">
+    <row r="79">
       <c r="I79" t="s">
         <v>613</v>
       </c>
@@ -5714,7 +6017,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="80" spans="9:31">
+    <row r="80">
       <c r="I80" t="s">
         <v>615</v>
       </c>
@@ -5722,7 +6025,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="81" spans="9:31">
+    <row r="81">
       <c r="I81" t="s">
         <v>617</v>
       </c>
@@ -5730,7 +6033,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="82" spans="9:31">
+    <row r="82">
       <c r="I82" t="s">
         <v>619</v>
       </c>
@@ -5738,7 +6041,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="83" spans="9:31">
+    <row r="83">
       <c r="I83" t="s">
         <v>621</v>
       </c>
@@ -5746,7 +6049,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="84" spans="9:31">
+    <row r="84">
       <c r="I84" t="s">
         <v>623</v>
       </c>
@@ -5754,7 +6057,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="85" spans="9:31">
+    <row r="85">
       <c r="I85" t="s">
         <v>625</v>
       </c>
@@ -5762,7 +6065,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="86" spans="9:31">
+    <row r="86">
       <c r="I86" t="s">
         <v>627</v>
       </c>
@@ -5770,7 +6073,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="9:31">
+    <row r="87">
       <c r="I87" t="s">
         <v>629</v>
       </c>
@@ -5778,7 +6081,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="88" spans="9:31">
+    <row r="88">
       <c r="I88" t="s">
         <v>631</v>
       </c>
@@ -5786,7 +6089,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="89" spans="9:31">
+    <row r="89">
       <c r="I89" t="s">
         <v>633</v>
       </c>
@@ -5794,7 +6097,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="90" spans="9:31">
+    <row r="90">
       <c r="I90" t="s">
         <v>635</v>
       </c>
@@ -5802,7 +6105,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="91" spans="9:31">
+    <row r="91">
       <c r="I91" t="s">
         <v>637</v>
       </c>
@@ -5810,7 +6113,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="92" spans="9:31">
+    <row r="92">
       <c r="I92" t="s">
         <v>639</v>
       </c>
@@ -5818,7 +6121,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="93" spans="9:31">
+    <row r="93">
       <c r="I93" t="s">
         <v>641</v>
       </c>
@@ -5826,7 +6129,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="94" spans="9:31">
+    <row r="94">
       <c r="I94" t="s">
         <v>643</v>
       </c>
@@ -5834,7 +6137,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="95" spans="9:31">
+    <row r="95">
       <c r="I95" t="s">
         <v>645</v>
       </c>
@@ -5842,7 +6145,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="96" spans="9:31">
+    <row r="96">
       <c r="I96" t="s">
         <v>647</v>
       </c>
@@ -5850,7 +6153,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="97" spans="9:31">
+    <row r="97">
       <c r="I97" t="s">
         <v>649</v>
       </c>
@@ -5858,7 +6161,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="98" spans="9:31">
+    <row r="98">
       <c r="I98" t="s">
         <v>651</v>
       </c>
@@ -5866,7 +6169,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="99" spans="9:31">
+    <row r="99">
       <c r="I99" t="s">
         <v>653</v>
       </c>
@@ -5874,7 +6177,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="100" spans="9:31">
+    <row r="100">
       <c r="I100" t="s">
         <v>655</v>
       </c>
@@ -5882,7 +6185,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="101" spans="9:31">
+    <row r="101">
       <c r="I101" t="s">
         <v>656</v>
       </c>
@@ -5890,7 +6193,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="102" spans="9:31">
+    <row r="102">
       <c r="I102" t="s">
         <v>658</v>
       </c>
@@ -5898,7 +6201,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="103" spans="9:31">
+    <row r="103">
       <c r="I103" t="s">
         <v>660</v>
       </c>
@@ -5906,7 +6209,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="104" spans="9:31">
+    <row r="104">
       <c r="I104" t="s">
         <v>662</v>
       </c>
@@ -5914,7 +6217,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="105" spans="9:31">
+    <row r="105">
       <c r="I105" t="s">
         <v>664</v>
       </c>
@@ -5922,7 +6225,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="106" spans="9:31">
+    <row r="106">
       <c r="I106" t="s">
         <v>666</v>
       </c>
@@ -5930,7 +6233,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="107" spans="9:31">
+    <row r="107">
       <c r="I107" t="s">
         <v>668</v>
       </c>
@@ -5938,7 +6241,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="108" spans="9:31">
+    <row r="108">
       <c r="I108" t="s">
         <v>670</v>
       </c>
@@ -5946,7 +6249,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="109" spans="9:31">
+    <row r="109">
       <c r="I109" t="s">
         <v>672</v>
       </c>
@@ -5954,7 +6257,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="110" spans="9:31">
+    <row r="110">
       <c r="I110" t="s">
         <v>674</v>
       </c>
@@ -5962,7 +6265,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="111" spans="9:31">
+    <row r="111">
       <c r="I111" t="s">
         <v>676</v>
       </c>
@@ -5970,7 +6273,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="112" spans="9:31">
+    <row r="112">
       <c r="I112" t="s">
         <v>678</v>
       </c>
@@ -5978,7 +6281,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="113" spans="9:31">
+    <row r="113">
       <c r="I113" t="s">
         <v>680</v>
       </c>
@@ -5986,270 +6289,275 @@
         <v>681</v>
       </c>
     </row>
-    <row r="114" spans="31:31">
+    <row r="114">
       <c r="AE114" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="115" spans="31:31">
+    <row r="115">
       <c r="AE115" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="116" spans="31:31">
+    <row r="116">
       <c r="AE116" t="s">
         <v>682</v>
       </c>
     </row>
-    <row r="117" spans="31:31">
+    <row r="117">
       <c r="AE117" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="118" spans="31:31">
+    <row r="118">
       <c r="AE118" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="119" spans="31:31">
+    <row r="119">
       <c r="AE119" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="120" spans="31:31">
+    <row r="120">
       <c r="AE120" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="121" spans="31:31">
+    <row r="121">
       <c r="AE121" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="122" spans="31:31">
+    <row r="122">
       <c r="AE122" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="123" spans="31:31">
+    <row r="123">
       <c r="AE123" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="124" spans="31:31">
+    <row r="124">
       <c r="AE124" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="125" spans="31:31">
+    <row r="125">
       <c r="AE125" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="31:31">
+    <row r="126">
       <c r="AE126" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="127" spans="31:31">
+    <row r="127">
       <c r="AE127" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="128" spans="31:31">
+    <row r="128">
       <c r="AE128" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="129" spans="31:31">
+    <row r="129">
       <c r="AE129" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="130" spans="31:31">
+    <row r="130">
       <c r="AE130" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="131" spans="31:31">
+    <row r="131">
       <c r="AE131" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="132" spans="31:31">
+    <row r="132">
       <c r="AE132" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="133" spans="31:31">
+    <row r="133">
       <c r="AE133" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="134" spans="31:31">
+    <row r="134">
       <c r="AE134" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="135" spans="31:31">
+    <row r="135">
       <c r="AE135" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="136" spans="31:31">
+    <row r="136">
       <c r="AE136" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="137" spans="31:31">
+    <row r="137">
       <c r="AE137" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="138" spans="31:31">
+    <row r="138">
       <c r="AE138" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="139" spans="31:31">
+    <row r="139">
       <c r="AE139" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="140" spans="31:31">
-      <c r="AE140" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="141" spans="31:31">
-      <c r="AE141" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="142" spans="31:31">
-      <c r="AE142" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="143" spans="31:31">
-      <c r="AE143" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="144" spans="31:31">
-      <c r="AE144" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>710</v>
       </c>
     </row>
-    <row r="145" spans="31:31">
-      <c r="AE145" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="146" spans="31:31">
-      <c r="AE146" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="147" spans="31:31">
-      <c r="AE147" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="148" spans="31:31">
-      <c r="AE148" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="149" spans="31:31">
-      <c r="AE149" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="150" spans="31:31">
-      <c r="AE150" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="151" spans="31:31">
-      <c r="AE151" t="s">
+    <row r="152">
+      <c r="AE152" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="152" spans="31:31">
-      <c r="AE152" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="153" spans="31:31">
-      <c r="AE153" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="154" spans="31:31">
-      <c r="AE154" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="155" spans="31:31">
-      <c r="AE155" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="156" spans="31:31">
-      <c r="AE156" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="157" spans="31:31">
-      <c r="AE157" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="158" spans="31:31">
-      <c r="AE158" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="159" spans="31:31">
-      <c r="AE159" t="s">
+    <row r="160">
+      <c r="AE160" t="s">
         <v>724</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:O317"/>
+  <dimension ref="A1:P317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="true" topLeftCell="C1" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F8" pane="bottomLeft" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="35.75" style="5" customWidth="1"/>
-    <col min="5" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.875" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.875" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="20.0" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="41.625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.875" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="35.75" collapsed="false"/>
+    <col min="5" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.625" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.875" collapsed="false"/>
+    <col min="16" max="16384" style="10" width="10.875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>725</v>
       </c>
@@ -6280,7 +6588,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="32"/>
     </row>
-    <row r="2" ht="27.75" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="27.75" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>732</v>
       </c>
@@ -6301,7 +6609,7 @@
       <c r="N2" s="34"/>
       <c r="O2" s="34"/>
     </row>
-    <row r="3" ht="9.95" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="9.95" r="3" spans="1:15">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -6318,7 +6626,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="23" t="s">
         <v>734</v>
       </c>
@@ -6363,7 +6671,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="5" spans="1:15">
       <c r="A5" s="18" t="s">
         <v>747</v>
       </c>
@@ -6390,7 +6698,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="6" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24" t="s">
@@ -6415,7 +6723,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="7" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="24" t="s">
@@ -6442,7 +6750,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" ht="79" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="79" r="8" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="24" t="s">
@@ -6457,6 +6765,8 @@
       <c r="F8" s="27" t="s">
         <v>754</v>
       </c>
+      <c r="G8"/>
+      <c r="H8"/>
       <c r="I8" s="25"/>
       <c r="J8" s="38"/>
       <c r="K8" s="21"/>
@@ -6465,7 +6775,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="9" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="24"/>
@@ -6482,7 +6792,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="10" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="24"/>
@@ -6499,7 +6809,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="11" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="24"/>
@@ -6516,7 +6826,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="12" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="24"/>
@@ -6533,7 +6843,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="13" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="24"/>
@@ -6550,7 +6860,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="14" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="24"/>
@@ -6567,7 +6877,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="15" spans="1:15">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="24"/>
@@ -6584,7 +6894,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="16" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="24"/>
@@ -6601,7 +6911,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="17" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="24"/>
@@ -6618,7 +6928,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="18" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="24"/>
@@ -6635,7 +6945,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="19" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="24"/>
@@ -6652,7 +6962,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="20" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="24"/>
@@ -6669,7 +6979,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" ht="30" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="30" r="21" spans="1:15">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="24"/>
@@ -6686,7 +6996,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="22" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="24"/>
@@ -6703,7 +7013,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="23" spans="1:15">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="24"/>
@@ -6720,7 +7030,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="24" spans="1:15">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="24"/>
@@ -6737,7 +7047,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="25" spans="1:15">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="24"/>
@@ -6754,7 +7064,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="26" spans="1:15">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="24"/>
@@ -6771,7 +7081,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="27" spans="1:15">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="24"/>
@@ -6788,7 +7098,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="28" spans="1:15">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="24"/>
@@ -6805,7 +7115,7 @@
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="29" spans="1:15">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="24"/>
@@ -6822,7 +7132,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="30" spans="1:15">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="24"/>
@@ -6839,7 +7149,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="31" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="24"/>
@@ -6856,7 +7166,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="32" spans="1:15">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
@@ -6873,7 +7183,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="33" spans="1:15">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="24"/>
@@ -6890,7 +7200,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="34" spans="1:15">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="24"/>
@@ -6907,7 +7217,7 @@
       <c r="N34" s="22"/>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="35" spans="1:15">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="24"/>
@@ -6924,7 +7234,7 @@
       <c r="N35" s="22"/>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="36" spans="1:15">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="24"/>
@@ -6941,7 +7251,7 @@
       <c r="N36" s="22"/>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="37" spans="1:15">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="24"/>
@@ -6958,7 +7268,7 @@
       <c r="N37" s="22"/>
       <c r="O37" s="21"/>
     </row>
-    <row r="38" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="38" spans="1:15">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="24"/>
@@ -6975,7 +7285,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="39" spans="1:15">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="24"/>
@@ -6992,7 +7302,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="40" spans="1:15">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="24"/>
@@ -7009,7 +7319,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="41" spans="1:15">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="24"/>
@@ -7026,7 +7336,7 @@
       <c r="N41" s="22"/>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="42" spans="1:15">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="24"/>
@@ -7043,7 +7353,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="43" spans="1:15">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="24"/>
@@ -7060,7 +7370,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="21"/>
     </row>
-    <row r="44" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="44" spans="1:15">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="24"/>
@@ -7077,7 +7387,7 @@
       <c r="N44" s="22"/>
       <c r="O44" s="21"/>
     </row>
-    <row r="45" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="45" spans="1:15">
       <c r="A45" s="18"/>
       <c r="B45" s="30"/>
       <c r="C45" s="24"/>
@@ -7094,7 +7404,7 @@
       <c r="N45" s="22"/>
       <c r="O45" s="21"/>
     </row>
-    <row r="46" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="46" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="24"/>
@@ -7111,7 +7421,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="21"/>
     </row>
-    <row r="47" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="47" spans="1:15">
       <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="24"/>
@@ -7128,7 +7438,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="21"/>
     </row>
-    <row r="48" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="48" spans="1:15">
       <c r="A48" s="18"/>
       <c r="B48" s="19"/>
       <c r="C48" s="24"/>
@@ -7145,7 +7455,7 @@
       <c r="N48" s="22"/>
       <c r="O48" s="21"/>
     </row>
-    <row r="49" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="49" spans="1:15">
       <c r="A49" s="18"/>
       <c r="B49" s="19"/>
       <c r="C49" s="24"/>
@@ -7162,7 +7472,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="21"/>
     </row>
-    <row r="50" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="50" spans="1:15">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
       <c r="C50" s="24"/>
@@ -7179,7 +7489,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
     </row>
-    <row r="51" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="51" spans="1:15">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="24"/>
@@ -7196,7 +7506,7 @@
       <c r="N51" s="22"/>
       <c r="O51" s="21"/>
     </row>
-    <row r="52" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="52" spans="1:15">
       <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="24"/>
@@ -7213,7 +7523,7 @@
       <c r="N52" s="22"/>
       <c r="O52" s="21"/>
     </row>
-    <row r="53" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="53" spans="1:15">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="24"/>
@@ -7230,7 +7540,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="21"/>
     </row>
-    <row r="54" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="54" spans="1:15">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="24"/>
@@ -7247,7 +7557,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="21"/>
     </row>
-    <row r="55" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="55" spans="1:15">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="24"/>
@@ -7264,7 +7574,7 @@
       <c r="N55" s="22"/>
       <c r="O55" s="21"/>
     </row>
-    <row r="56" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="56" spans="1:15">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="24"/>
@@ -7281,7 +7591,7 @@
       <c r="N56" s="22"/>
       <c r="O56" s="21"/>
     </row>
-    <row r="57" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="57" spans="1:15">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="24"/>
@@ -7298,7 +7608,7 @@
       <c r="N57" s="22"/>
       <c r="O57" s="21"/>
     </row>
-    <row r="58" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="58" spans="1:15">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="24"/>
@@ -7315,7 +7625,7 @@
       <c r="N58" s="22"/>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="59" spans="1:15">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="24"/>
@@ -7332,7 +7642,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="21"/>
     </row>
-    <row r="60" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="60" spans="1:15">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="24"/>
@@ -7349,7 +7659,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="21"/>
     </row>
-    <row r="61" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="61" spans="1:15">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="24"/>
@@ -7366,7 +7676,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="21"/>
     </row>
-    <row r="62" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="62" spans="1:15">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="24"/>
@@ -7383,7 +7693,7 @@
       <c r="N62" s="22"/>
       <c r="O62" s="21"/>
     </row>
-    <row r="63" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="63" spans="1:15">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="24"/>
@@ -7400,7 +7710,7 @@
       <c r="N63" s="22"/>
       <c r="O63" s="21"/>
     </row>
-    <row r="64" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="64" spans="1:15">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="C64" s="24"/>
@@ -7417,7 +7727,7 @@
       <c r="N64" s="22"/>
       <c r="O64" s="21"/>
     </row>
-    <row r="65" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="65" spans="1:15">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="24"/>
@@ -7434,7 +7744,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="21"/>
     </row>
-    <row r="66" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="66" spans="1:15">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
       <c r="C66" s="24"/>
@@ -7451,7 +7761,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="21"/>
     </row>
-    <row r="67" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="67" spans="1:15">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
@@ -7468,7 +7778,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="21"/>
     </row>
-    <row r="68" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="68" spans="1:15">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="24"/>
@@ -7485,7 +7795,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="69" spans="1:15">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="24"/>
@@ -7502,7 +7812,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="70" spans="1:15">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
       <c r="C70" s="24"/>
@@ -7519,7 +7829,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="21"/>
     </row>
-    <row r="71" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="71" spans="1:15">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
       <c r="C71" s="24"/>
@@ -7536,7 +7846,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="21"/>
     </row>
-    <row r="72" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="72" spans="1:15">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
       <c r="C72" s="24"/>
@@ -7553,7 +7863,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="21"/>
     </row>
-    <row r="73" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="73" spans="1:15">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
       <c r="C73" s="24"/>
@@ -7570,7 +7880,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="21"/>
     </row>
-    <row r="74" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="74" spans="1:15">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
       <c r="C74" s="24"/>
@@ -7587,7 +7897,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="21"/>
     </row>
-    <row r="75" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="75" spans="1:15">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
       <c r="C75" s="24"/>
@@ -7604,7 +7914,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="21"/>
     </row>
-    <row r="76" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="76" spans="1:15">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
       <c r="C76" s="24"/>
@@ -7621,7 +7931,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="21"/>
     </row>
-    <row r="77" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="77" spans="1:15">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
       <c r="C77" s="24"/>
@@ -7638,7 +7948,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="21"/>
     </row>
-    <row r="78" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="78" spans="1:15">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="C78" s="24"/>
@@ -7655,7 +7965,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="21"/>
     </row>
-    <row r="79" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="79" spans="1:15">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="24"/>
@@ -7672,7 +7982,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="21"/>
     </row>
-    <row r="80" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="80" spans="1:15">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
       <c r="C80" s="24"/>
@@ -7689,7 +7999,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="21"/>
     </row>
-    <row r="81" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="81" spans="1:15">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
       <c r="C81" s="24"/>
@@ -7706,7 +8016,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="21"/>
     </row>
-    <row r="82" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="82" spans="1:15">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
       <c r="C82" s="24"/>
@@ -7723,7 +8033,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="21"/>
     </row>
-    <row r="83" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="83" spans="1:15">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
       <c r="C83" s="24"/>
@@ -7740,7 +8050,7 @@
       <c r="N83" s="22"/>
       <c r="O83" s="21"/>
     </row>
-    <row r="84" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="84" spans="1:15">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
       <c r="C84" s="24"/>
@@ -7757,7 +8067,7 @@
       <c r="N84" s="22"/>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="85" spans="1:15">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="24"/>
@@ -7774,7 +8084,7 @@
       <c r="N85" s="22"/>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="86" spans="1:15">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
       <c r="C86" s="24"/>
@@ -7791,7 +8101,7 @@
       <c r="N86" s="22"/>
       <c r="O86" s="21"/>
     </row>
-    <row r="87" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="87" spans="1:15">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
       <c r="C87" s="24"/>
@@ -7808,7 +8118,7 @@
       <c r="N87" s="22"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="88" spans="1:15">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
       <c r="C88" s="24"/>
@@ -7825,7 +8135,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="89" spans="1:15">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
       <c r="C89" s="24"/>
@@ -7842,7 +8152,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="90" spans="1:15">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
       <c r="C90" s="24"/>
@@ -7859,7 +8169,7 @@
       <c r="N90" s="22"/>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="91" spans="1:15">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
       <c r="C91" s="24"/>
@@ -7876,7 +8186,7 @@
       <c r="N91" s="22"/>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="92" spans="1:15">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
       <c r="C92" s="24"/>
@@ -7893,7 +8203,7 @@
       <c r="N92" s="22"/>
       <c r="O92" s="21"/>
     </row>
-    <row r="93" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="93" spans="1:15">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
       <c r="C93" s="24"/>
@@ -7910,7 +8220,7 @@
       <c r="N93" s="22"/>
       <c r="O93" s="21"/>
     </row>
-    <row r="94" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="94" spans="1:15">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
       <c r="C94" s="24"/>
@@ -7927,7 +8237,7 @@
       <c r="N94" s="22"/>
       <c r="O94" s="21"/>
     </row>
-    <row r="95" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="95" spans="1:15">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
       <c r="C95" s="24"/>
@@ -7944,7 +8254,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="21"/>
     </row>
-    <row r="96" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="96" spans="1:15">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
       <c r="C96" s="24"/>
@@ -7961,7 +8271,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="21"/>
     </row>
-    <row r="97" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="97" spans="1:15">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
       <c r="C97" s="24"/>
@@ -7978,7 +8288,7 @@
       <c r="N97" s="22"/>
       <c r="O97" s="21"/>
     </row>
-    <row r="98" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="98" spans="1:15">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
       <c r="C98" s="24"/>
@@ -7995,7 +8305,7 @@
       <c r="N98" s="22"/>
       <c r="O98" s="21"/>
     </row>
-    <row r="99" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="99" spans="1:15">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
       <c r="C99" s="24"/>
@@ -8012,7 +8322,7 @@
       <c r="N99" s="22"/>
       <c r="O99" s="21"/>
     </row>
-    <row r="100" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="100" spans="1:15">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
       <c r="C100" s="24"/>
@@ -8029,7 +8339,7 @@
       <c r="N100" s="22"/>
       <c r="O100" s="21"/>
     </row>
-    <row r="101" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="101" spans="1:15">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="24"/>
@@ -8046,7 +8356,7 @@
       <c r="N101" s="22"/>
       <c r="O101" s="21"/>
     </row>
-    <row r="102" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="102" spans="1:15">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
       <c r="C102" s="24"/>
@@ -8063,7 +8373,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="21"/>
     </row>
-    <row r="103" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="103" spans="1:15">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
       <c r="C103" s="24"/>
@@ -8080,7 +8390,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="21"/>
     </row>
-    <row r="104" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="104" spans="1:15">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
       <c r="C104" s="24"/>
@@ -8097,7 +8407,7 @@
       <c r="N104" s="22"/>
       <c r="O104" s="21"/>
     </row>
-    <row r="105" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="105" spans="1:15">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
       <c r="C105" s="24"/>
@@ -8114,7 +8424,7 @@
       <c r="N105" s="22"/>
       <c r="O105" s="21"/>
     </row>
-    <row r="106" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="106" spans="1:15">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
       <c r="C106" s="24"/>
@@ -8131,7 +8441,7 @@
       <c r="N106" s="22"/>
       <c r="O106" s="21"/>
     </row>
-    <row r="107" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="107" spans="1:15">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
       <c r="C107" s="24"/>
@@ -8148,7 +8458,7 @@
       <c r="N107" s="22"/>
       <c r="O107" s="21"/>
     </row>
-    <row r="108" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="108" spans="1:15">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
       <c r="C108" s="24"/>
@@ -8165,7 +8475,7 @@
       <c r="N108" s="22"/>
       <c r="O108" s="21"/>
     </row>
-    <row r="109" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="109" spans="1:15">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
       <c r="C109" s="24"/>
@@ -8182,7 +8492,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="21"/>
     </row>
-    <row r="110" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="110" spans="1:15">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
       <c r="C110" s="24"/>
@@ -8199,7 +8509,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="21"/>
     </row>
-    <row r="111" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="111" spans="1:15">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
       <c r="C111" s="24"/>
@@ -8216,7 +8526,7 @@
       <c r="N111" s="22"/>
       <c r="O111" s="21"/>
     </row>
-    <row r="112" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="112" spans="1:15">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
       <c r="C112" s="24"/>
@@ -8233,7 +8543,7 @@
       <c r="N112" s="22"/>
       <c r="O112" s="21"/>
     </row>
-    <row r="113" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="113" spans="1:15">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="C113" s="24"/>
@@ -8250,7 +8560,7 @@
       <c r="N113" s="22"/>
       <c r="O113" s="21"/>
     </row>
-    <row r="114" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="114" spans="1:15">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="C114" s="24"/>
@@ -8267,7 +8577,7 @@
       <c r="N114" s="22"/>
       <c r="O114" s="21"/>
     </row>
-    <row r="115" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="115" spans="1:15">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
       <c r="C115" s="24"/>
@@ -8284,7 +8594,7 @@
       <c r="N115" s="22"/>
       <c r="O115" s="21"/>
     </row>
-    <row r="116" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="116" spans="1:15">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="C116" s="24"/>
@@ -8301,7 +8611,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="21"/>
     </row>
-    <row r="117" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="117" spans="1:15">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="C117" s="24"/>
@@ -8318,7 +8628,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="21"/>
     </row>
-    <row r="118" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="118" spans="1:15">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
       <c r="C118" s="24"/>
@@ -8335,7 +8645,7 @@
       <c r="N118" s="22"/>
       <c r="O118" s="21"/>
     </row>
-    <row r="119" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="119" spans="1:15">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
       <c r="C119" s="24"/>
@@ -8352,7 +8662,7 @@
       <c r="N119" s="22"/>
       <c r="O119" s="21"/>
     </row>
-    <row r="120" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="120" spans="1:15">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="C120" s="24"/>
@@ -8369,7 +8679,7 @@
       <c r="N120" s="22"/>
       <c r="O120" s="21"/>
     </row>
-    <row r="121" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="121" spans="1:15">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="24"/>
@@ -8386,7 +8696,7 @@
       <c r="N121" s="22"/>
       <c r="O121" s="21"/>
     </row>
-    <row r="122" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="122" spans="1:15">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="24"/>
@@ -8403,7 +8713,7 @@
       <c r="N122" s="22"/>
       <c r="O122" s="21"/>
     </row>
-    <row r="123" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="123" spans="1:15">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="24"/>
@@ -8420,7 +8730,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="21"/>
     </row>
-    <row r="124" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="124" spans="1:15">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="24"/>
@@ -8437,7 +8747,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="21"/>
     </row>
-    <row r="125" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="125" spans="1:15">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="24"/>
@@ -8454,7 +8764,7 @@
       <c r="N125" s="22"/>
       <c r="O125" s="21"/>
     </row>
-    <row r="126" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="126" spans="1:15">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="24"/>
@@ -8471,7 +8781,7 @@
       <c r="N126" s="22"/>
       <c r="O126" s="21"/>
     </row>
-    <row r="127" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="127" spans="1:15">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="24"/>
@@ -8488,7 +8798,7 @@
       <c r="N127" s="22"/>
       <c r="O127" s="21"/>
     </row>
-    <row r="128" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="128" spans="1:15">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="24"/>
@@ -8505,7 +8815,7 @@
       <c r="N128" s="22"/>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="129" spans="1:15">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="24"/>
@@ -8522,7 +8832,7 @@
       <c r="N129" s="22"/>
       <c r="O129" s="21"/>
     </row>
-    <row r="130" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="130" spans="1:15">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="24"/>
@@ -8539,7 +8849,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="21"/>
     </row>
-    <row r="131" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="131" spans="1:15">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
       <c r="C131" s="24"/>
@@ -8556,7 +8866,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="21"/>
     </row>
-    <row r="132" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="132" spans="1:15">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
       <c r="C132" s="24"/>
@@ -8573,7 +8883,7 @@
       <c r="N132" s="22"/>
       <c r="O132" s="21"/>
     </row>
-    <row r="133" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="133" spans="1:15">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
       <c r="C133" s="24"/>
@@ -8590,7 +8900,7 @@
       <c r="N133" s="22"/>
       <c r="O133" s="21"/>
     </row>
-    <row r="134" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="134" spans="1:15">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="C134" s="24"/>
@@ -8607,7 +8917,7 @@
       <c r="N134" s="22"/>
       <c r="O134" s="21"/>
     </row>
-    <row r="135" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="135" spans="1:15">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
       <c r="C135" s="24"/>
@@ -8624,7 +8934,7 @@
       <c r="N135" s="22"/>
       <c r="O135" s="21"/>
     </row>
-    <row r="136" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="136" spans="1:15">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
       <c r="C136" s="24"/>
@@ -8641,7 +8951,7 @@
       <c r="N136" s="22"/>
       <c r="O136" s="21"/>
     </row>
-    <row r="137" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="137" spans="1:15">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
       <c r="C137" s="24"/>
@@ -8658,7 +8968,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="21"/>
     </row>
-    <row r="138" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="138" spans="1:15">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
       <c r="C138" s="24"/>
@@ -8675,7 +8985,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="21"/>
     </row>
-    <row r="139" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="139" spans="1:15">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
       <c r="C139" s="24"/>
@@ -8692,7 +9002,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="21"/>
     </row>
-    <row r="140" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="140" spans="1:15">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
       <c r="C140" s="24"/>
@@ -8709,7 +9019,7 @@
       <c r="N140" s="22"/>
       <c r="O140" s="21"/>
     </row>
-    <row r="141" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="141" spans="1:15">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
       <c r="C141" s="24"/>
@@ -8726,7 +9036,7 @@
       <c r="N141" s="22"/>
       <c r="O141" s="21"/>
     </row>
-    <row r="142" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="142" spans="1:15">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
       <c r="C142" s="24"/>
@@ -8743,7 +9053,7 @@
       <c r="N142" s="22"/>
       <c r="O142" s="21"/>
     </row>
-    <row r="143" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="143" spans="1:15">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
       <c r="C143" s="24"/>
@@ -8760,7 +9070,7 @@
       <c r="N143" s="22"/>
       <c r="O143" s="21"/>
     </row>
-    <row r="144" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="144" spans="1:15">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
       <c r="C144" s="24"/>
@@ -8777,7 +9087,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="21"/>
     </row>
-    <row r="145" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="145" spans="1:15">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
       <c r="C145" s="24"/>
@@ -8794,7 +9104,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="21"/>
     </row>
-    <row r="146" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="146" spans="1:15">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="24"/>
@@ -8811,7 +9121,7 @@
       <c r="N146" s="22"/>
       <c r="O146" s="21"/>
     </row>
-    <row r="147" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="147" spans="1:15">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
       <c r="C147" s="24"/>
@@ -8828,7 +9138,7 @@
       <c r="N147" s="22"/>
       <c r="O147" s="21"/>
     </row>
-    <row r="148" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="148" spans="1:15">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
       <c r="C148" s="24"/>
@@ -8845,7 +9155,7 @@
       <c r="N148" s="22"/>
       <c r="O148" s="21"/>
     </row>
-    <row r="149" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="149" spans="1:15">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
       <c r="C149" s="24"/>
@@ -8862,7 +9172,7 @@
       <c r="N149" s="22"/>
       <c r="O149" s="21"/>
     </row>
-    <row r="150" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="150" spans="1:15">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
       <c r="C150" s="24"/>
@@ -8879,7 +9189,7 @@
       <c r="N150" s="22"/>
       <c r="O150" s="21"/>
     </row>
-    <row r="151" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="151" spans="1:15">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
       <c r="C151" s="24"/>
@@ -8896,7 +9206,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="21"/>
     </row>
-    <row r="152" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="152" spans="1:15">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
       <c r="C152" s="24"/>
@@ -8913,7 +9223,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="21"/>
     </row>
-    <row r="153" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="153" spans="1:15">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
       <c r="C153" s="24"/>
@@ -8930,7 +9240,7 @@
       <c r="N153" s="22"/>
       <c r="O153" s="21"/>
     </row>
-    <row r="154" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="154" spans="1:15">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
       <c r="C154" s="24"/>
@@ -8947,7 +9257,7 @@
       <c r="N154" s="22"/>
       <c r="O154" s="21"/>
     </row>
-    <row r="155" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="155" spans="1:15">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
       <c r="C155" s="24"/>
@@ -8964,7 +9274,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="21"/>
     </row>
-    <row r="156" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="156" spans="1:15">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
       <c r="C156" s="24"/>
@@ -8981,7 +9291,7 @@
       <c r="N156" s="22"/>
       <c r="O156" s="21"/>
     </row>
-    <row r="157" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="157" spans="1:15">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
       <c r="C157" s="24"/>
@@ -8998,7 +9308,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="21"/>
     </row>
-    <row r="158" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="158" spans="1:15">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
       <c r="C158" s="24"/>
@@ -9015,7 +9325,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="21"/>
     </row>
-    <row r="159" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="159" spans="1:15">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
       <c r="C159" s="24"/>
@@ -9032,7 +9342,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="21"/>
     </row>
-    <row r="160" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="160" spans="1:15">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
       <c r="C160" s="24"/>
@@ -9049,7 +9359,7 @@
       <c r="N160" s="22"/>
       <c r="O160" s="21"/>
     </row>
-    <row r="161" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="161" spans="1:15">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
       <c r="C161" s="24"/>
@@ -9066,7 +9376,7 @@
       <c r="N161" s="22"/>
       <c r="O161" s="21"/>
     </row>
-    <row r="162" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="162" spans="1:15">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
       <c r="C162" s="24"/>
@@ -9083,7 +9393,7 @@
       <c r="N162" s="22"/>
       <c r="O162" s="21"/>
     </row>
-    <row r="163" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="163" spans="1:15">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
       <c r="C163" s="24"/>
@@ -9100,7 +9410,7 @@
       <c r="N163" s="22"/>
       <c r="O163" s="21"/>
     </row>
-    <row r="164" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="164" spans="1:15">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
       <c r="C164" s="24"/>
@@ -9117,7 +9427,7 @@
       <c r="N164" s="22"/>
       <c r="O164" s="21"/>
     </row>
-    <row r="165" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="165" spans="1:15">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
       <c r="C165" s="24"/>
@@ -9134,7 +9444,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="21"/>
     </row>
-    <row r="166" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="166" spans="1:15">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
       <c r="C166" s="24"/>
@@ -9151,7 +9461,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="21"/>
     </row>
-    <row r="167" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="167" spans="1:15">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
       <c r="C167" s="24"/>
@@ -9168,7 +9478,7 @@
       <c r="N167" s="22"/>
       <c r="O167" s="21"/>
     </row>
-    <row r="168" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="168" spans="1:15">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
       <c r="C168" s="24"/>
@@ -9185,7 +9495,7 @@
       <c r="N168" s="22"/>
       <c r="O168" s="21"/>
     </row>
-    <row r="169" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="169" spans="1:15">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
       <c r="C169" s="24"/>
@@ -9202,7 +9512,7 @@
       <c r="N169" s="22"/>
       <c r="O169" s="21"/>
     </row>
-    <row r="170" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="170" spans="1:15">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
       <c r="C170" s="24"/>
@@ -9219,7 +9529,7 @@
       <c r="N170" s="22"/>
       <c r="O170" s="21"/>
     </row>
-    <row r="171" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="171" spans="1:15">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
       <c r="C171" s="24"/>
@@ -9236,7 +9546,7 @@
       <c r="N171" s="22"/>
       <c r="O171" s="21"/>
     </row>
-    <row r="172" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="172" spans="1:15">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
       <c r="C172" s="24"/>
@@ -9253,7 +9563,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="21"/>
     </row>
-    <row r="173" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="173" spans="1:15">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
       <c r="C173" s="24"/>
@@ -9270,7 +9580,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="21"/>
     </row>
-    <row r="174" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="174" spans="1:15">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
       <c r="C174" s="24"/>
@@ -9287,7 +9597,7 @@
       <c r="N174" s="22"/>
       <c r="O174" s="21"/>
     </row>
-    <row r="175" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="175" spans="1:15">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
       <c r="C175" s="24"/>
@@ -9304,7 +9614,7 @@
       <c r="N175" s="22"/>
       <c r="O175" s="21"/>
     </row>
-    <row r="176" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="176" spans="1:15">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
       <c r="C176" s="24"/>
@@ -9321,7 +9631,7 @@
       <c r="N176" s="22"/>
       <c r="O176" s="21"/>
     </row>
-    <row r="177" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="177" spans="1:15">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
       <c r="C177" s="24"/>
@@ -9338,7 +9648,7 @@
       <c r="N177" s="22"/>
       <c r="O177" s="21"/>
     </row>
-    <row r="178" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="178" spans="1:15">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
       <c r="C178" s="24"/>
@@ -9355,7 +9665,7 @@
       <c r="N178" s="22"/>
       <c r="O178" s="21"/>
     </row>
-    <row r="179" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="179" spans="1:15">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
       <c r="C179" s="24"/>
@@ -9372,7 +9682,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="21"/>
     </row>
-    <row r="180" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="180" spans="1:15">
       <c r="A180" s="18"/>
       <c r="B180" s="19"/>
       <c r="C180" s="24"/>
@@ -9389,7 +9699,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="21"/>
     </row>
-    <row r="181" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="181" spans="1:15">
       <c r="A181" s="18"/>
       <c r="B181" s="19"/>
       <c r="C181" s="24"/>
@@ -9406,7 +9716,7 @@
       <c r="N181" s="22"/>
       <c r="O181" s="21"/>
     </row>
-    <row r="182" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="182" spans="1:15">
       <c r="A182" s="18"/>
       <c r="B182" s="19"/>
       <c r="C182" s="24"/>
@@ -9423,7 +9733,7 @@
       <c r="N182" s="22"/>
       <c r="O182" s="21"/>
     </row>
-    <row r="183" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="183" spans="1:15">
       <c r="A183" s="18"/>
       <c r="B183" s="19"/>
       <c r="C183" s="24"/>
@@ -9440,7 +9750,7 @@
       <c r="N183" s="22"/>
       <c r="O183" s="21"/>
     </row>
-    <row r="184" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="184" spans="1:15">
       <c r="A184" s="18"/>
       <c r="B184" s="19"/>
       <c r="C184" s="24"/>
@@ -9457,7 +9767,7 @@
       <c r="N184" s="22"/>
       <c r="O184" s="21"/>
     </row>
-    <row r="185" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="185" spans="1:15">
       <c r="A185" s="18"/>
       <c r="B185" s="19"/>
       <c r="C185" s="24"/>
@@ -9474,7 +9784,7 @@
       <c r="N185" s="22"/>
       <c r="O185" s="21"/>
     </row>
-    <row r="186" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="186" spans="1:15">
       <c r="A186" s="18"/>
       <c r="B186" s="19"/>
       <c r="C186" s="24"/>
@@ -9491,7 +9801,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="21"/>
     </row>
-    <row r="187" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="187" spans="1:15">
       <c r="A187" s="18"/>
       <c r="B187" s="19"/>
       <c r="C187" s="24"/>
@@ -9508,7 +9818,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="21"/>
     </row>
-    <row r="188" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="188" spans="1:15">
       <c r="A188" s="18"/>
       <c r="B188" s="19"/>
       <c r="C188" s="24"/>
@@ -9525,7 +9835,7 @@
       <c r="N188" s="22"/>
       <c r="O188" s="21"/>
     </row>
-    <row r="189" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="189" spans="1:15">
       <c r="A189" s="18"/>
       <c r="B189" s="19"/>
       <c r="C189" s="24"/>
@@ -9542,7 +9852,7 @@
       <c r="N189" s="22"/>
       <c r="O189" s="21"/>
     </row>
-    <row r="190" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="190" spans="1:15">
       <c r="A190" s="18"/>
       <c r="B190" s="19"/>
       <c r="C190" s="24"/>
@@ -9559,7 +9869,7 @@
       <c r="N190" s="22"/>
       <c r="O190" s="21"/>
     </row>
-    <row r="191" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="191" spans="1:15">
       <c r="A191" s="18"/>
       <c r="B191" s="19"/>
       <c r="C191" s="24"/>
@@ -9576,7 +9886,7 @@
       <c r="N191" s="22"/>
       <c r="O191" s="21"/>
     </row>
-    <row r="192" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="192" spans="1:15">
       <c r="A192" s="18"/>
       <c r="B192" s="19"/>
       <c r="C192" s="24"/>
@@ -9593,7 +9903,7 @@
       <c r="N192" s="22"/>
       <c r="O192" s="21"/>
     </row>
-    <row r="193" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="193" spans="1:15">
       <c r="A193" s="18"/>
       <c r="B193" s="19"/>
       <c r="C193" s="24"/>
@@ -9610,7 +9920,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="21"/>
     </row>
-    <row r="194" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="194" spans="1:15">
       <c r="A194" s="18"/>
       <c r="B194" s="19"/>
       <c r="C194" s="24"/>
@@ -9627,7 +9937,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="21"/>
     </row>
-    <row r="195" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="195" spans="1:15">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
       <c r="C195" s="24"/>
@@ -9644,7 +9954,7 @@
       <c r="N195" s="22"/>
       <c r="O195" s="21"/>
     </row>
-    <row r="196" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="196" spans="1:15">
       <c r="A196" s="18"/>
       <c r="B196" s="19"/>
       <c r="C196" s="24"/>
@@ -9661,7 +9971,7 @@
       <c r="N196" s="22"/>
       <c r="O196" s="21"/>
     </row>
-    <row r="197" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="197" spans="1:15">
       <c r="A197" s="18"/>
       <c r="B197" s="19"/>
       <c r="C197" s="24"/>
@@ -9678,7 +9988,7 @@
       <c r="N197" s="22"/>
       <c r="O197" s="21"/>
     </row>
-    <row r="198" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="198" spans="1:15">
       <c r="A198" s="18"/>
       <c r="B198" s="19"/>
       <c r="C198" s="24"/>
@@ -9695,7 +10005,7 @@
       <c r="N198" s="22"/>
       <c r="O198" s="21"/>
     </row>
-    <row r="199" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="199" spans="1:15">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
       <c r="C199" s="24"/>
@@ -9712,7 +10022,7 @@
       <c r="N199" s="22"/>
       <c r="O199" s="21"/>
     </row>
-    <row r="200" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="200" spans="1:15">
       <c r="A200" s="18"/>
       <c r="B200" s="19"/>
       <c r="C200" s="24"/>
@@ -9729,7 +10039,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="21"/>
     </row>
-    <row r="201" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="201" spans="1:15">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
       <c r="C201" s="24"/>
@@ -9746,7 +10056,7 @@
       <c r="N201" s="22"/>
       <c r="O201" s="21"/>
     </row>
-    <row r="202" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="202" spans="1:15">
       <c r="A202" s="18"/>
       <c r="B202" s="19"/>
       <c r="C202" s="24"/>
@@ -9763,7 +10073,7 @@
       <c r="N202" s="22"/>
       <c r="O202" s="21"/>
     </row>
-    <row r="203" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="203" spans="1:15">
       <c r="A203" s="18"/>
       <c r="B203" s="19"/>
       <c r="C203" s="24"/>
@@ -9780,7 +10090,7 @@
       <c r="N203" s="22"/>
       <c r="O203" s="21"/>
     </row>
-    <row r="204" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="204" spans="1:15">
       <c r="A204" s="18"/>
       <c r="B204" s="19"/>
       <c r="C204" s="24"/>
@@ -9797,7 +10107,7 @@
       <c r="N204" s="22"/>
       <c r="O204" s="21"/>
     </row>
-    <row r="205" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="205" spans="1:15">
       <c r="A205" s="18"/>
       <c r="B205" s="19"/>
       <c r="C205" s="24"/>
@@ -9814,7 +10124,7 @@
       <c r="N205" s="22"/>
       <c r="O205" s="21"/>
     </row>
-    <row r="206" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="206" spans="1:15">
       <c r="A206" s="18"/>
       <c r="B206" s="19"/>
       <c r="C206" s="24"/>
@@ -9831,7 +10141,7 @@
       <c r="N206" s="22"/>
       <c r="O206" s="21"/>
     </row>
-    <row r="207" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="207" spans="1:15">
       <c r="A207" s="18"/>
       <c r="B207" s="19"/>
       <c r="C207" s="24"/>
@@ -9848,7 +10158,7 @@
       <c r="N207" s="22"/>
       <c r="O207" s="21"/>
     </row>
-    <row r="208" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="208" spans="1:15">
       <c r="A208" s="18"/>
       <c r="B208" s="19"/>
       <c r="C208" s="24"/>
@@ -9865,7 +10175,7 @@
       <c r="N208" s="22"/>
       <c r="O208" s="21"/>
     </row>
-    <row r="209" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="209" spans="1:15">
       <c r="A209" s="18"/>
       <c r="B209" s="19"/>
       <c r="C209" s="24"/>
@@ -9882,7 +10192,7 @@
       <c r="N209" s="22"/>
       <c r="O209" s="21"/>
     </row>
-    <row r="210" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="210" spans="1:15">
       <c r="A210" s="18"/>
       <c r="B210" s="19"/>
       <c r="C210" s="24"/>
@@ -9899,7 +10209,7 @@
       <c r="N210" s="22"/>
       <c r="O210" s="21"/>
     </row>
-    <row r="211" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="211" spans="1:15">
       <c r="A211" s="18"/>
       <c r="B211" s="19"/>
       <c r="C211" s="24"/>
@@ -9916,7 +10226,7 @@
       <c r="N211" s="22"/>
       <c r="O211" s="21"/>
     </row>
-    <row r="212" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="212" spans="1:15">
       <c r="A212" s="18"/>
       <c r="B212" s="19"/>
       <c r="C212" s="24"/>
@@ -9933,7 +10243,7 @@
       <c r="N212" s="22"/>
       <c r="O212" s="21"/>
     </row>
-    <row r="213" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="213" spans="1:15">
       <c r="A213" s="18"/>
       <c r="B213" s="19"/>
       <c r="C213" s="24"/>
@@ -9950,7 +10260,7 @@
       <c r="N213" s="22"/>
       <c r="O213" s="21"/>
     </row>
-    <row r="214" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="214" spans="1:15">
       <c r="A214" s="18"/>
       <c r="B214" s="19"/>
       <c r="C214" s="24"/>
@@ -9967,7 +10277,7 @@
       <c r="N214" s="22"/>
       <c r="O214" s="21"/>
     </row>
-    <row r="215" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="215" spans="1:15">
       <c r="A215" s="18"/>
       <c r="B215" s="19"/>
       <c r="C215" s="24"/>
@@ -9984,7 +10294,7 @@
       <c r="N215" s="22"/>
       <c r="O215" s="21"/>
     </row>
-    <row r="216" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="216" spans="1:15">
       <c r="A216" s="18"/>
       <c r="B216" s="19"/>
       <c r="C216" s="24"/>
@@ -10001,7 +10311,7 @@
       <c r="N216" s="22"/>
       <c r="O216" s="21"/>
     </row>
-    <row r="217" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="217" spans="1:15">
       <c r="A217" s="18"/>
       <c r="B217" s="19"/>
       <c r="C217" s="24"/>
@@ -10018,7 +10328,7 @@
       <c r="N217" s="22"/>
       <c r="O217" s="21"/>
     </row>
-    <row r="218" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="218" spans="1:15">
       <c r="A218" s="18"/>
       <c r="B218" s="19"/>
       <c r="C218" s="24"/>
@@ -10035,7 +10345,7 @@
       <c r="N218" s="22"/>
       <c r="O218" s="21"/>
     </row>
-    <row r="219" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="219" spans="1:15">
       <c r="A219" s="18"/>
       <c r="B219" s="19"/>
       <c r="C219" s="24"/>
@@ -10052,7 +10362,7 @@
       <c r="N219" s="22"/>
       <c r="O219" s="21"/>
     </row>
-    <row r="220" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="220" spans="1:15">
       <c r="A220" s="18"/>
       <c r="B220" s="19"/>
       <c r="C220" s="24"/>
@@ -10069,7 +10379,7 @@
       <c r="N220" s="22"/>
       <c r="O220" s="21"/>
     </row>
-    <row r="221" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="221" spans="1:15">
       <c r="A221" s="18"/>
       <c r="B221" s="19"/>
       <c r="C221" s="24"/>
@@ -10086,7 +10396,7 @@
       <c r="N221" s="22"/>
       <c r="O221" s="21"/>
     </row>
-    <row r="222" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="222" spans="1:15">
       <c r="A222" s="18"/>
       <c r="B222" s="19"/>
       <c r="C222" s="24"/>
@@ -10103,7 +10413,7 @@
       <c r="N222" s="22"/>
       <c r="O222" s="21"/>
     </row>
-    <row r="223" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="223" spans="1:15">
       <c r="A223" s="18"/>
       <c r="B223" s="19"/>
       <c r="C223" s="24"/>
@@ -10120,7 +10430,7 @@
       <c r="N223" s="22"/>
       <c r="O223" s="21"/>
     </row>
-    <row r="224" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="224" spans="1:15">
       <c r="A224" s="18"/>
       <c r="B224" s="19"/>
       <c r="C224" s="24"/>
@@ -10137,7 +10447,7 @@
       <c r="N224" s="22"/>
       <c r="O224" s="21"/>
     </row>
-    <row r="225" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="225" spans="1:15">
       <c r="A225" s="18"/>
       <c r="B225" s="19"/>
       <c r="C225" s="24"/>
@@ -10154,7 +10464,7 @@
       <c r="N225" s="22"/>
       <c r="O225" s="21"/>
     </row>
-    <row r="226" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="226" spans="1:15">
       <c r="A226" s="18"/>
       <c r="B226" s="19"/>
       <c r="C226" s="24"/>
@@ -10171,7 +10481,7 @@
       <c r="N226" s="22"/>
       <c r="O226" s="21"/>
     </row>
-    <row r="227" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="227" spans="1:15">
       <c r="A227" s="18"/>
       <c r="B227" s="19"/>
       <c r="C227" s="24"/>
@@ -10188,7 +10498,7 @@
       <c r="N227" s="22"/>
       <c r="O227" s="21"/>
     </row>
-    <row r="228" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="228" spans="1:15">
       <c r="A228" s="18"/>
       <c r="B228" s="19"/>
       <c r="C228" s="24"/>
@@ -10205,7 +10515,7 @@
       <c r="N228" s="22"/>
       <c r="O228" s="21"/>
     </row>
-    <row r="229" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="229" spans="1:15">
       <c r="A229" s="18"/>
       <c r="B229" s="19"/>
       <c r="C229" s="24"/>
@@ -10222,7 +10532,7 @@
       <c r="N229" s="22"/>
       <c r="O229" s="21"/>
     </row>
-    <row r="230" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="230" spans="1:15">
       <c r="A230" s="18"/>
       <c r="B230" s="19"/>
       <c r="C230" s="24"/>
@@ -10239,7 +10549,7 @@
       <c r="N230" s="22"/>
       <c r="O230" s="21"/>
     </row>
-    <row r="231" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="231" spans="1:15">
       <c r="A231" s="18"/>
       <c r="B231" s="19"/>
       <c r="C231" s="24"/>
@@ -10256,7 +10566,7 @@
       <c r="N231" s="22"/>
       <c r="O231" s="21"/>
     </row>
-    <row r="232" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="232" spans="1:15">
       <c r="A232" s="18"/>
       <c r="B232" s="19"/>
       <c r="C232" s="24"/>
@@ -10273,7 +10583,7 @@
       <c r="N232" s="22"/>
       <c r="O232" s="21"/>
     </row>
-    <row r="233" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="233" spans="1:15">
       <c r="A233" s="18"/>
       <c r="B233" s="19"/>
       <c r="C233" s="24"/>
@@ -10290,7 +10600,7 @@
       <c r="N233" s="22"/>
       <c r="O233" s="21"/>
     </row>
-    <row r="234" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="234" spans="1:15">
       <c r="A234" s="18"/>
       <c r="B234" s="19"/>
       <c r="C234" s="24"/>
@@ -10307,7 +10617,7 @@
       <c r="N234" s="22"/>
       <c r="O234" s="21"/>
     </row>
-    <row r="235" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="235" spans="1:15">
       <c r="A235" s="18"/>
       <c r="B235" s="19"/>
       <c r="C235" s="24"/>
@@ -10324,7 +10634,7 @@
       <c r="N235" s="22"/>
       <c r="O235" s="21"/>
     </row>
-    <row r="236" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="236" spans="1:15">
       <c r="A236" s="18"/>
       <c r="B236" s="19"/>
       <c r="C236" s="24"/>
@@ -10341,7 +10651,7 @@
       <c r="N236" s="22"/>
       <c r="O236" s="21"/>
     </row>
-    <row r="237" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="237" spans="1:15">
       <c r="A237" s="18"/>
       <c r="B237" s="19"/>
       <c r="C237" s="24"/>
@@ -10358,7 +10668,7 @@
       <c r="N237" s="22"/>
       <c r="O237" s="21"/>
     </row>
-    <row r="238" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="238" spans="1:15">
       <c r="A238" s="18"/>
       <c r="B238" s="19"/>
       <c r="C238" s="24"/>
@@ -10375,7 +10685,7 @@
       <c r="N238" s="22"/>
       <c r="O238" s="21"/>
     </row>
-    <row r="239" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="239" spans="1:15">
       <c r="A239" s="18"/>
       <c r="B239" s="19"/>
       <c r="C239" s="24"/>
@@ -10392,7 +10702,7 @@
       <c r="N239" s="22"/>
       <c r="O239" s="21"/>
     </row>
-    <row r="240" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="240" spans="1:15">
       <c r="A240" s="18"/>
       <c r="B240" s="19"/>
       <c r="C240" s="24"/>
@@ -10409,7 +10719,7 @@
       <c r="N240" s="22"/>
       <c r="O240" s="21"/>
     </row>
-    <row r="241" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="241" spans="1:15">
       <c r="A241" s="18"/>
       <c r="B241" s="19"/>
       <c r="C241" s="24"/>
@@ -10426,7 +10736,7 @@
       <c r="N241" s="22"/>
       <c r="O241" s="21"/>
     </row>
-    <row r="242" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="242" spans="1:15">
       <c r="A242" s="18"/>
       <c r="B242" s="19"/>
       <c r="C242" s="24"/>
@@ -10443,7 +10753,7 @@
       <c r="N242" s="22"/>
       <c r="O242" s="21"/>
     </row>
-    <row r="243" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="243" spans="1:15">
       <c r="A243" s="18"/>
       <c r="B243" s="19"/>
       <c r="C243" s="24"/>
@@ -10460,7 +10770,7 @@
       <c r="N243" s="22"/>
       <c r="O243" s="21"/>
     </row>
-    <row r="244" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="244" spans="1:15">
       <c r="A244" s="18"/>
       <c r="B244" s="19"/>
       <c r="C244" s="24"/>
@@ -10477,7 +10787,7 @@
       <c r="N244" s="22"/>
       <c r="O244" s="21"/>
     </row>
-    <row r="245" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="245" spans="1:15">
       <c r="A245" s="18"/>
       <c r="B245" s="19"/>
       <c r="C245" s="24"/>
@@ -10494,7 +10804,7 @@
       <c r="N245" s="22"/>
       <c r="O245" s="21"/>
     </row>
-    <row r="246" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="246" spans="1:15">
       <c r="A246" s="18"/>
       <c r="B246" s="19"/>
       <c r="C246" s="24"/>
@@ -10511,7 +10821,7 @@
       <c r="N246" s="22"/>
       <c r="O246" s="21"/>
     </row>
-    <row r="247" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="247" spans="1:15">
       <c r="A247" s="18"/>
       <c r="B247" s="19"/>
       <c r="C247" s="24"/>
@@ -10528,7 +10838,7 @@
       <c r="N247" s="22"/>
       <c r="O247" s="21"/>
     </row>
-    <row r="248" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="248" spans="1:15">
       <c r="A248" s="18"/>
       <c r="B248" s="19"/>
       <c r="C248" s="24"/>
@@ -10545,7 +10855,7 @@
       <c r="N248" s="22"/>
       <c r="O248" s="21"/>
     </row>
-    <row r="249" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="249" spans="1:15">
       <c r="A249" s="18"/>
       <c r="B249" s="19"/>
       <c r="C249" s="24"/>
@@ -10562,7 +10872,7 @@
       <c r="N249" s="22"/>
       <c r="O249" s="21"/>
     </row>
-    <row r="250" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="250" spans="1:15">
       <c r="A250" s="18"/>
       <c r="B250" s="19"/>
       <c r="C250" s="24"/>
@@ -10579,7 +10889,7 @@
       <c r="N250" s="22"/>
       <c r="O250" s="21"/>
     </row>
-    <row r="251" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="251" spans="1:15">
       <c r="A251" s="18"/>
       <c r="B251" s="19"/>
       <c r="C251" s="24"/>
@@ -10596,7 +10906,7 @@
       <c r="N251" s="22"/>
       <c r="O251" s="21"/>
     </row>
-    <row r="252" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="252" spans="1:15">
       <c r="A252" s="18"/>
       <c r="B252" s="19"/>
       <c r="C252" s="24"/>
@@ -10613,7 +10923,7 @@
       <c r="N252" s="22"/>
       <c r="O252" s="21"/>
     </row>
-    <row r="253" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="253" spans="1:15">
       <c r="A253" s="18"/>
       <c r="B253" s="19"/>
       <c r="C253" s="24"/>
@@ -10630,7 +10940,7 @@
       <c r="N253" s="22"/>
       <c r="O253" s="21"/>
     </row>
-    <row r="254" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="254" spans="1:15">
       <c r="A254" s="18"/>
       <c r="B254" s="19"/>
       <c r="C254" s="24"/>
@@ -10647,7 +10957,7 @@
       <c r="N254" s="22"/>
       <c r="O254" s="21"/>
     </row>
-    <row r="255" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="255" spans="1:15">
       <c r="A255" s="18"/>
       <c r="B255" s="19"/>
       <c r="C255" s="24"/>
@@ -10664,7 +10974,7 @@
       <c r="N255" s="22"/>
       <c r="O255" s="21"/>
     </row>
-    <row r="256" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="256" spans="1:15">
       <c r="A256" s="18"/>
       <c r="B256" s="19"/>
       <c r="C256" s="24"/>
@@ -10681,7 +10991,7 @@
       <c r="N256" s="22"/>
       <c r="O256" s="21"/>
     </row>
-    <row r="257" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="257" spans="1:15">
       <c r="A257" s="18"/>
       <c r="B257" s="19"/>
       <c r="C257" s="24"/>
@@ -10698,7 +11008,7 @@
       <c r="N257" s="22"/>
       <c r="O257" s="21"/>
     </row>
-    <row r="258" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="258" spans="1:15">
       <c r="A258" s="18"/>
       <c r="B258" s="19"/>
       <c r="C258" s="24"/>
@@ -10715,7 +11025,7 @@
       <c r="N258" s="22"/>
       <c r="O258" s="21"/>
     </row>
-    <row r="259" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="259" spans="1:15">
       <c r="A259" s="18"/>
       <c r="B259" s="19"/>
       <c r="C259" s="24"/>
@@ -10732,7 +11042,7 @@
       <c r="N259" s="22"/>
       <c r="O259" s="21"/>
     </row>
-    <row r="260" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="260" spans="1:15">
       <c r="A260" s="18"/>
       <c r="B260" s="19"/>
       <c r="C260" s="24"/>
@@ -10749,7 +11059,7 @@
       <c r="N260" s="22"/>
       <c r="O260" s="21"/>
     </row>
-    <row r="261" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="261" spans="1:15">
       <c r="A261" s="18"/>
       <c r="B261" s="19"/>
       <c r="C261" s="24"/>
@@ -10766,7 +11076,7 @@
       <c r="N261" s="22"/>
       <c r="O261" s="21"/>
     </row>
-    <row r="262" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="262" spans="1:15">
       <c r="A262" s="18"/>
       <c r="B262" s="19"/>
       <c r="C262" s="24"/>
@@ -10783,7 +11093,7 @@
       <c r="N262" s="22"/>
       <c r="O262" s="21"/>
     </row>
-    <row r="263" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="263" spans="1:15">
       <c r="A263" s="18"/>
       <c r="B263" s="19"/>
       <c r="C263" s="24"/>
@@ -10800,7 +11110,7 @@
       <c r="N263" s="22"/>
       <c r="O263" s="21"/>
     </row>
-    <row r="264" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="264" spans="1:15">
       <c r="A264" s="18"/>
       <c r="B264" s="19"/>
       <c r="C264" s="24"/>
@@ -10817,7 +11127,7 @@
       <c r="N264" s="22"/>
       <c r="O264" s="21"/>
     </row>
-    <row r="265" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="265" spans="1:15">
       <c r="A265" s="18"/>
       <c r="B265" s="19"/>
       <c r="C265" s="24"/>
@@ -10834,7 +11144,7 @@
       <c r="N265" s="22"/>
       <c r="O265" s="21"/>
     </row>
-    <row r="266" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="266" spans="1:15">
       <c r="A266" s="18"/>
       <c r="B266" s="19"/>
       <c r="C266" s="24"/>
@@ -10851,7 +11161,7 @@
       <c r="N266" s="22"/>
       <c r="O266" s="21"/>
     </row>
-    <row r="267" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="267" spans="1:15">
       <c r="A267" s="18"/>
       <c r="B267" s="19"/>
       <c r="C267" s="24"/>
@@ -10868,7 +11178,7 @@
       <c r="N267" s="22"/>
       <c r="O267" s="21"/>
     </row>
-    <row r="268" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="268" spans="1:15">
       <c r="A268" s="18"/>
       <c r="B268" s="19"/>
       <c r="C268" s="24"/>
@@ -10885,7 +11195,7 @@
       <c r="N268" s="22"/>
       <c r="O268" s="21"/>
     </row>
-    <row r="269" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="269" spans="1:15">
       <c r="A269" s="18"/>
       <c r="B269" s="19"/>
       <c r="C269" s="24"/>
@@ -10902,7 +11212,7 @@
       <c r="N269" s="22"/>
       <c r="O269" s="21"/>
     </row>
-    <row r="270" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="270" spans="1:15">
       <c r="A270" s="18"/>
       <c r="B270" s="19"/>
       <c r="C270" s="24"/>
@@ -10919,7 +11229,7 @@
       <c r="N270" s="22"/>
       <c r="O270" s="21"/>
     </row>
-    <row r="271" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="271" spans="1:15">
       <c r="A271" s="18"/>
       <c r="B271" s="19"/>
       <c r="C271" s="24"/>
@@ -10936,7 +11246,7 @@
       <c r="N271" s="22"/>
       <c r="O271" s="21"/>
     </row>
-    <row r="272" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="272" spans="1:15">
       <c r="A272" s="18"/>
       <c r="B272" s="19"/>
       <c r="C272" s="24"/>
@@ -10953,7 +11263,7 @@
       <c r="N272" s="22"/>
       <c r="O272" s="21"/>
     </row>
-    <row r="273" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="273" spans="1:15">
       <c r="A273" s="18"/>
       <c r="B273" s="19"/>
       <c r="C273" s="24"/>
@@ -10970,7 +11280,7 @@
       <c r="N273" s="22"/>
       <c r="O273" s="21"/>
     </row>
-    <row r="274" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="274" spans="1:15">
       <c r="A274" s="18"/>
       <c r="B274" s="19"/>
       <c r="C274" s="24"/>
@@ -10987,7 +11297,7 @@
       <c r="N274" s="22"/>
       <c r="O274" s="21"/>
     </row>
-    <row r="275" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="275" spans="1:15">
       <c r="A275" s="18"/>
       <c r="B275" s="19"/>
       <c r="C275" s="24"/>
@@ -11004,7 +11314,7 @@
       <c r="N275" s="22"/>
       <c r="O275" s="21"/>
     </row>
-    <row r="276" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="276" spans="1:15">
       <c r="A276" s="18"/>
       <c r="B276" s="19"/>
       <c r="C276" s="24"/>
@@ -11021,7 +11331,7 @@
       <c r="N276" s="22"/>
       <c r="O276" s="21"/>
     </row>
-    <row r="277" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="277" spans="1:15">
       <c r="A277" s="18"/>
       <c r="B277" s="19"/>
       <c r="C277" s="24"/>
@@ -11038,7 +11348,7 @@
       <c r="N277" s="22"/>
       <c r="O277" s="21"/>
     </row>
-    <row r="278" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="278" spans="1:15">
       <c r="A278" s="18"/>
       <c r="B278" s="19"/>
       <c r="C278" s="24"/>
@@ -11055,7 +11365,7 @@
       <c r="N278" s="22"/>
       <c r="O278" s="21"/>
     </row>
-    <row r="279" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="279" spans="1:15">
       <c r="A279" s="18"/>
       <c r="B279" s="19"/>
       <c r="C279" s="24"/>
@@ -11072,7 +11382,7 @@
       <c r="N279" s="22"/>
       <c r="O279" s="21"/>
     </row>
-    <row r="280" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="280" spans="1:15">
       <c r="A280" s="18"/>
       <c r="B280" s="19"/>
       <c r="C280" s="24"/>
@@ -11089,7 +11399,7 @@
       <c r="N280" s="22"/>
       <c r="O280" s="21"/>
     </row>
-    <row r="281" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="281" spans="1:15">
       <c r="A281" s="18"/>
       <c r="B281" s="19"/>
       <c r="C281" s="24"/>
@@ -11106,7 +11416,7 @@
       <c r="N281" s="22"/>
       <c r="O281" s="21"/>
     </row>
-    <row r="282" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="282" spans="1:15">
       <c r="A282" s="18"/>
       <c r="B282" s="19"/>
       <c r="C282" s="24"/>
@@ -11123,7 +11433,7 @@
       <c r="N282" s="22"/>
       <c r="O282" s="21"/>
     </row>
-    <row r="283" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="283" spans="1:15">
       <c r="A283" s="18"/>
       <c r="B283" s="19"/>
       <c r="C283" s="24"/>
@@ -11140,7 +11450,7 @@
       <c r="N283" s="22"/>
       <c r="O283" s="21"/>
     </row>
-    <row r="284" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="284" spans="1:15">
       <c r="A284" s="18"/>
       <c r="B284" s="19"/>
       <c r="C284" s="24"/>
@@ -11157,7 +11467,7 @@
       <c r="N284" s="22"/>
       <c r="O284" s="21"/>
     </row>
-    <row r="285" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="285" spans="1:15">
       <c r="A285" s="18"/>
       <c r="B285" s="19"/>
       <c r="C285" s="24"/>
@@ -11174,7 +11484,7 @@
       <c r="N285" s="22"/>
       <c r="O285" s="21"/>
     </row>
-    <row r="286" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="286" spans="1:15">
       <c r="A286" s="18"/>
       <c r="B286" s="19"/>
       <c r="C286" s="24"/>
@@ -11191,7 +11501,7 @@
       <c r="N286" s="22"/>
       <c r="O286" s="21"/>
     </row>
-    <row r="287" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="287" spans="1:15">
       <c r="A287" s="18"/>
       <c r="B287" s="19"/>
       <c r="C287" s="24"/>
@@ -11208,7 +11518,7 @@
       <c r="N287" s="22"/>
       <c r="O287" s="21"/>
     </row>
-    <row r="288" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="288" spans="1:15">
       <c r="A288" s="18"/>
       <c r="B288" s="19"/>
       <c r="C288" s="24"/>
@@ -11225,7 +11535,7 @@
       <c r="N288" s="22"/>
       <c r="O288" s="21"/>
     </row>
-    <row r="289" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="289" spans="1:15">
       <c r="A289" s="18"/>
       <c r="B289" s="19"/>
       <c r="C289" s="24"/>
@@ -11242,7 +11552,7 @@
       <c r="N289" s="22"/>
       <c r="O289" s="21"/>
     </row>
-    <row r="290" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="290" spans="1:15">
       <c r="A290" s="18"/>
       <c r="B290" s="19"/>
       <c r="C290" s="24"/>
@@ -11259,7 +11569,7 @@
       <c r="N290" s="22"/>
       <c r="O290" s="21"/>
     </row>
-    <row r="291" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="291" spans="1:15">
       <c r="A291" s="18"/>
       <c r="B291" s="19"/>
       <c r="C291" s="24"/>
@@ -11276,7 +11586,7 @@
       <c r="N291" s="22"/>
       <c r="O291" s="21"/>
     </row>
-    <row r="292" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="292" spans="1:15">
       <c r="A292" s="18"/>
       <c r="B292" s="19"/>
       <c r="C292" s="24"/>
@@ -11293,7 +11603,7 @@
       <c r="N292" s="22"/>
       <c r="O292" s="21"/>
     </row>
-    <row r="293" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="293" spans="1:15">
       <c r="A293" s="18"/>
       <c r="B293" s="19"/>
       <c r="C293" s="24"/>
@@ -11310,7 +11620,7 @@
       <c r="N293" s="22"/>
       <c r="O293" s="21"/>
     </row>
-    <row r="294" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="294" spans="1:15">
       <c r="A294" s="18"/>
       <c r="B294" s="19"/>
       <c r="C294" s="24"/>
@@ -11327,7 +11637,7 @@
       <c r="N294" s="22"/>
       <c r="O294" s="21"/>
     </row>
-    <row r="295" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="295" spans="1:15">
       <c r="A295" s="18"/>
       <c r="B295" s="19"/>
       <c r="C295" s="24"/>
@@ -11344,7 +11654,7 @@
       <c r="N295" s="22"/>
       <c r="O295" s="21"/>
     </row>
-    <row r="296" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="296" spans="1:15">
       <c r="A296" s="18"/>
       <c r="B296" s="19"/>
       <c r="C296" s="24"/>
@@ -11361,7 +11671,7 @@
       <c r="N296" s="22"/>
       <c r="O296" s="21"/>
     </row>
-    <row r="297" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="297" spans="1:15">
       <c r="A297" s="18"/>
       <c r="B297" s="19"/>
       <c r="C297" s="24"/>
@@ -11378,7 +11688,7 @@
       <c r="N297" s="22"/>
       <c r="O297" s="21"/>
     </row>
-    <row r="298" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="298" spans="1:15">
       <c r="A298" s="18"/>
       <c r="B298" s="19"/>
       <c r="C298" s="24"/>
@@ -11395,7 +11705,7 @@
       <c r="N298" s="22"/>
       <c r="O298" s="21"/>
     </row>
-    <row r="299" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="299" spans="1:15">
       <c r="A299" s="18"/>
       <c r="B299" s="19"/>
       <c r="C299" s="24"/>
@@ -11412,7 +11722,7 @@
       <c r="N299" s="22"/>
       <c r="O299" s="21"/>
     </row>
-    <row r="300" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="300" spans="1:15">
       <c r="A300" s="18"/>
       <c r="B300" s="19"/>
       <c r="C300" s="24"/>
@@ -11429,7 +11739,7 @@
       <c r="N300" s="22"/>
       <c r="O300" s="21"/>
     </row>
-    <row r="301" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="301" spans="1:15">
       <c r="A301" s="18"/>
       <c r="B301" s="19"/>
       <c r="C301" s="24"/>
@@ -11446,7 +11756,7 @@
       <c r="N301" s="22"/>
       <c r="O301" s="21"/>
     </row>
-    <row r="302" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="302" spans="1:15">
       <c r="A302" s="18"/>
       <c r="B302" s="19"/>
       <c r="C302" s="24"/>
@@ -11463,7 +11773,7 @@
       <c r="N302" s="22"/>
       <c r="O302" s="21"/>
     </row>
-    <row r="303" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="303" spans="1:15">
       <c r="A303" s="18"/>
       <c r="B303" s="19"/>
       <c r="C303" s="24"/>
@@ -11480,7 +11790,7 @@
       <c r="N303" s="22"/>
       <c r="O303" s="21"/>
     </row>
-    <row r="304" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="304" spans="1:15">
       <c r="A304" s="18"/>
       <c r="B304" s="19"/>
       <c r="C304" s="24"/>
@@ -11497,7 +11807,7 @@
       <c r="N304" s="22"/>
       <c r="O304" s="21"/>
     </row>
-    <row r="305" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="305" spans="1:15">
       <c r="A305" s="18"/>
       <c r="B305" s="19"/>
       <c r="C305" s="24"/>
@@ -11514,7 +11824,7 @@
       <c r="N305" s="22"/>
       <c r="O305" s="21"/>
     </row>
-    <row r="306" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="306" spans="1:15">
       <c r="A306" s="18"/>
       <c r="B306" s="19"/>
       <c r="C306" s="24"/>
@@ -11531,7 +11841,7 @@
       <c r="N306" s="22"/>
       <c r="O306" s="21"/>
     </row>
-    <row r="307" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="307" spans="1:15">
       <c r="A307" s="18"/>
       <c r="B307" s="19"/>
       <c r="C307" s="24"/>
@@ -11548,7 +11858,7 @@
       <c r="N307" s="22"/>
       <c r="O307" s="21"/>
     </row>
-    <row r="308" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="308" spans="1:15">
       <c r="A308" s="18"/>
       <c r="B308" s="19"/>
       <c r="C308" s="24"/>
@@ -11565,7 +11875,7 @@
       <c r="N308" s="22"/>
       <c r="O308" s="21"/>
     </row>
-    <row r="309" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="309" spans="1:15">
       <c r="A309" s="18"/>
       <c r="B309" s="19"/>
       <c r="C309" s="24"/>
@@ -11582,7 +11892,7 @@
       <c r="N309" s="22"/>
       <c r="O309" s="21"/>
     </row>
-    <row r="310" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="310" spans="1:15">
       <c r="A310" s="18"/>
       <c r="B310" s="19"/>
       <c r="C310" s="24"/>
@@ -11599,7 +11909,7 @@
       <c r="N310" s="22"/>
       <c r="O310" s="21"/>
     </row>
-    <row r="311" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="311" spans="1:15">
       <c r="A311" s="18"/>
       <c r="B311" s="19"/>
       <c r="C311" s="24"/>
@@ -11616,7 +11926,7 @@
       <c r="N311" s="22"/>
       <c r="O311" s="21"/>
     </row>
-    <row r="312" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="312" spans="1:15">
       <c r="A312" s="18"/>
       <c r="B312" s="19"/>
       <c r="C312" s="24"/>
@@ -11633,7 +11943,7 @@
       <c r="N312" s="22"/>
       <c r="O312" s="21"/>
     </row>
-    <row r="313" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="313" spans="1:15">
       <c r="A313" s="18"/>
       <c r="B313" s="19"/>
       <c r="C313" s="24"/>
@@ -11650,7 +11960,7 @@
       <c r="N313" s="22"/>
       <c r="O313" s="21"/>
     </row>
-    <row r="314" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="314" spans="1:15">
       <c r="A314" s="18"/>
       <c r="B314" s="19"/>
       <c r="C314" s="24"/>
@@ -11667,7 +11977,7 @@
       <c r="N314" s="22"/>
       <c r="O314" s="21"/>
     </row>
-    <row r="315" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="315" spans="1:15">
       <c r="A315" s="18"/>
       <c r="B315" s="19"/>
       <c r="C315" s="24"/>
@@ -11684,7 +11994,7 @@
       <c r="N315" s="22"/>
       <c r="O315" s="21"/>
     </row>
-    <row r="316" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="316" spans="1:15">
       <c r="A316" s="18"/>
       <c r="B316" s="19"/>
       <c r="C316" s="24"/>
@@ -11701,7 +12011,7 @@
       <c r="N316" s="22"/>
       <c r="O316" s="21"/>
     </row>
-    <row r="317" ht="23.1" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23.1" r="317" spans="1:15">
       <c r="A317" s="18"/>
       <c r="B317" s="19"/>
       <c r="C317" s="24"/>
@@ -11719,7 +12029,7 @@
       <c r="O317" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -11727,59 +12037,59 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N19">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N118:N317">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="7" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N118,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="8" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N118,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N118,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N18 N22:N117 N20 N318:N1048576">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="10" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="16" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="16" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="18" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12:C317">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12:C317" type="list">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12:D317">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7 D8 D9 D10 D11 D12:D317" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="1" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>